--- a/symbolic-execution-engine/symbolic-execution-experiment/results/symbolic-execution-run-time-evaluation.xlsx
+++ b/symbolic-execution-engine/symbolic-execution-experiment/results/symbolic-execution-run-time-evaluation.xlsx
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -742,56 +742,56 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247</v>
+        <v>486</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11122</t>
+          <t>11198</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>68</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3459</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>338790</t>
+          <t>341384</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>7379</t>
+          <t>7433</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>3743</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>7387</t>
+          <t>7440</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -862,46 +862,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>247</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>269</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>246</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>269</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>16039</t>
+          <t>15629</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>212</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>213</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1042,56 +1042,56 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295</v>
+        <v>581</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5220</t>
+          <t>5296</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>5192</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>515</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4543</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>5192</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>333170</t>
+          <t>337799</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4127</t>
+          <t>4193</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4194</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1246,12 +1246,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>452</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>457</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1282,56 +1282,56 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>325</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>296</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>325</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15264</t>
+          <t>16936</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>233</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>14798</v>
+        <v>17027</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>180869</t>
+          <t>180807</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>180812</t>
+          <t>180750</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>180869</t>
+          <t>180807</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1608,12 +1608,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>452</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>457</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1773,27 +1773,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>101</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2064,21 +2064,21 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9059</v>
+        <v>10380</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>159030</t>
+          <t>158970</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>196</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>29848</t>
+          <t>29757</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2088,17 +2088,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>28712</t>
+          <t>28621</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>29848</t>
+          <t>29757</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9280459</t>
+          <t>9275719</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>158993</t>
+          <t>158933</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>211</v>
+        <v>419</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>299</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>302</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>231</v>
+        <v>444</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2484,41 +2484,41 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>160</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>411</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>398</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>411</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>12268</t>
+          <t>11836</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>193</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -2544,56 +2544,56 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1043</t>
+          <t>978</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>867</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>77</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>790</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>934</t>
+          <t>867</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>75555</t>
+          <t>70553</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>908</t>
+          <t>848</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>130</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>909</t>
+          <t>849</t>
         </is>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2844,7 +2844,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2928,12 +2928,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
           <t>42</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3084,56 +3084,56 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>342</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>282</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>342</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>27957</t>
+          <t>27092</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>370</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3144,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3168,12 +3168,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>281</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>279</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>281</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3384,21 +3384,21 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>40</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3408,22 +3408,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>38</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4116</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>410</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3648,12 +3648,12 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>404</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>410</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3684,11 +3684,11 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>11264</t>
+          <t>11312</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3698,42 +3698,42 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>78</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3512</t>
+          <t>3547</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>344134</t>
+          <t>345826</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>7469</t>
+          <t>7505</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>3795</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>7477</t>
+          <t>7514</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3864,11 +3864,11 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>257</v>
+        <v>494</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5366</t>
+          <t>5379</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3878,42 +3878,42 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4059</t>
+          <t>4063</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>4096</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>293844</t>
+          <t>294670</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>5027</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>352</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>5032</t>
         </is>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4053,27 +4053,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>76</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>128</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
